--- a/file/Report.xlsx
+++ b/file/Report.xlsx
@@ -295,12 +295,12 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -310,7 +310,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -320,7 +320,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>9.70%</t>
+          <t>9.46%</t>
         </is>
       </c>
     </row>
@@ -332,12 +332,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -347,7 +347,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>3.09%</t>
+          <t>2.86%</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -357,7 +357,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>5.33%</t>
         </is>
       </c>
     </row>
@@ -369,7 +369,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-down</t>
+          <t>icon-Caret-up</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.04%</t>
         </is>
       </c>
     </row>
@@ -406,12 +406,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -421,7 +421,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11.73%</t>
+          <t>11.24%</t>
         </is>
       </c>
     </row>
@@ -443,12 +443,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>7.38%</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-down</t>
+          <t>icon-Caret-up</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>3.14%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11.05%</t>
+          <t>10.66%</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>10.79%</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>1.65%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23.03%</t>
+          <t>22.87%</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>2.41%</t>
         </is>
       </c>
     </row>

--- a/file/Report.xlsx
+++ b/file/Report.xlsx
@@ -300,7 +300,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -310,7 +310,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -320,7 +320,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>9.46%</t>
+          <t>9.72%</t>
         </is>
       </c>
     </row>
@@ -337,7 +337,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -347,7 +347,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -357,7 +357,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>5.62%</t>
         </is>
       </c>
     </row>
@@ -369,7 +369,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -384,7 +384,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.03%</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -421,7 +421,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>11.70%</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7.38%</t>
+          <t>7.74%</t>
         </is>
       </c>
     </row>
@@ -485,27 +485,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>icon-Caret-up</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>icon-Caret-down</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0.01%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>icon-Caret-up</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>icon-Caret-down</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>3.78%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>11.30%</t>
         </is>
       </c>
     </row>
@@ -559,17 +559,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10.79%</t>
+          <t>10.90%</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22.87%</t>
+          <t>23.02%</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-down</t>
+          <t>icon-Caret-up</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2.41%</t>
+          <t>2.35%</t>
         </is>
       </c>
     </row>

--- a/file/Report.xlsx
+++ b/file/Report.xlsx
@@ -300,7 +300,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -310,7 +310,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>2.54%</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -320,7 +320,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>9.32%</t>
         </is>
       </c>
     </row>
@@ -337,7 +337,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -347,7 +347,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -357,7 +357,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>5.26%</t>
         </is>
       </c>
     </row>
@@ -369,12 +369,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-down</t>
+          <t>icon-Caret-up</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -384,17 +384,17 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>icon-Caret-up</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
           <t>0.04%</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>icon-Caret-up</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>0.03%</t>
         </is>
       </c>
     </row>
@@ -411,17 +411,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>11.36%</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>7.61%</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>3.17%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>10.98%</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-down</t>
+          <t>icon-Caret-up</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>10.95%</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23.02%</t>
+          <t>22.85%</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>icon-Caret-up</t>
+          <t>icon-Caret-down</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.66%</t>
         </is>
       </c>
     </row>
